--- a/数轴分布.xlsx
+++ b/数轴分布.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="16095" windowHeight="6870"/>
@@ -16,9 +16,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
-  <si>
-    <t>a2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>ac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>af</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -26,67 +58,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>a4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>a0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1c</t>
+    <t>b6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ef</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +145,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,7 +181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -144,12 +194,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -158,46 +222,37 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>246849</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1133475"/>
-          <a:ext cx="6419850" cy="1085850"/>
+          <a:off x="9525" y="923925"/>
+          <a:ext cx="6409524" cy="800000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -206,7 +261,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -280,6 +335,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -314,6 +370,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -489,76 +546,224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A6:IV16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A14:IV16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="10" width="2.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="100" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="101" max="256" width="4.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:256">
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:256">
+    <row r="14" spans="1:256" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T14" s="1" t="s">
+      <c r="I14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AC14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT14" s="1" t="s">
+      <c r="U14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS14" s="5">
+        <v>80</v>
+      </c>
+      <c r="AT14" s="5">
+        <v>81</v>
+      </c>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5">
+        <v>83</v>
+      </c>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="5"/>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BS14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="BT14" s="6"/>
+      <c r="BU14" s="6"/>
+      <c r="BV14" s="6"/>
+      <c r="BW14" s="6"/>
+      <c r="BX14" s="6"/>
+      <c r="BY14" s="6"/>
+      <c r="BZ14" s="6"/>
+      <c r="CA14" s="6"/>
+      <c r="CB14" s="6"/>
+      <c r="CC14" s="6"/>
+      <c r="CD14" s="6"/>
+      <c r="CE14" s="6"/>
+      <c r="CF14" s="6"/>
+      <c r="CG14" s="6"/>
+      <c r="CH14" s="6"/>
+      <c r="CI14" s="6"/>
+      <c r="CJ14" s="6"/>
+      <c r="CK14" s="6"/>
+      <c r="CL14" s="6"/>
+      <c r="CM14" s="6"/>
+      <c r="CN14" s="6"/>
+      <c r="CO14" s="6"/>
+      <c r="CP14" s="6"/>
+      <c r="CQ14" s="6"/>
+      <c r="CR14" s="6"/>
+      <c r="CS14" s="6"/>
+      <c r="CT14" s="6"/>
+      <c r="CU14" s="6"/>
+      <c r="CV14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="CW14" s="6"/>
+      <c r="CX14" s="6"/>
+      <c r="CY14" s="6"/>
+      <c r="CZ14" s="6"/>
+      <c r="DA14" s="6"/>
+      <c r="DB14" s="6"/>
+      <c r="DC14" s="6"/>
+      <c r="DD14" s="6"/>
+      <c r="DE14" s="6"/>
+      <c r="DF14" s="6"/>
+      <c r="DG14" s="6"/>
+      <c r="DH14" s="6"/>
+      <c r="DI14" s="6"/>
+      <c r="DJ14" s="6"/>
+      <c r="DK14" s="6"/>
+      <c r="DL14" s="6"/>
+      <c r="DM14" s="6"/>
+      <c r="DN14" s="6"/>
+      <c r="DO14" s="6"/>
+      <c r="DP14" s="6"/>
+      <c r="DQ14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="DR14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="FB14" s="4">
+        <v>31</v>
+      </c>
+      <c r="FC14" s="4"/>
+      <c r="FD14" s="4"/>
+      <c r="FE14" s="4"/>
+      <c r="FF14" s="4"/>
+      <c r="FG14" s="4"/>
+      <c r="FH14" s="4"/>
+      <c r="FI14" s="4"/>
+      <c r="FJ14" s="4"/>
+      <c r="FK14" s="4"/>
+      <c r="FL14" s="4"/>
+      <c r="FM14" s="4"/>
+      <c r="FN14" s="4"/>
+      <c r="FO14" s="4"/>
+      <c r="FP14" s="4"/>
+      <c r="FQ14" s="4"/>
+      <c r="FR14" s="4"/>
+      <c r="FS14" s="4"/>
+      <c r="FT14" s="4"/>
+      <c r="FU14" s="4"/>
+      <c r="FV14" s="4"/>
+      <c r="FW14" s="4"/>
+      <c r="FX14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="FY14" s="4"/>
+      <c r="FZ14" s="4"/>
+      <c r="GA14" s="4"/>
+      <c r="GB14" s="4"/>
+      <c r="GC14" s="4"/>
+      <c r="GD14" s="4"/>
+      <c r="GE14" s="4"/>
+      <c r="GF14" s="4"/>
+      <c r="GG14" s="4">
         <v>10</v>
       </c>
-      <c r="BI14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="CM14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="DE14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="GC14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="GO14" s="1">
-        <v>66</v>
+      <c r="GH14" s="4"/>
+      <c r="GI14" s="4"/>
+      <c r="GJ14" s="4"/>
+      <c r="GK14" s="4"/>
+      <c r="GL14" s="4"/>
+      <c r="GM14" s="4"/>
+      <c r="GN14" s="4"/>
+      <c r="GO14" s="4"/>
+      <c r="GP14" s="4"/>
+      <c r="GQ14" s="4"/>
+      <c r="GR14" s="4"/>
+      <c r="GS14" s="4"/>
+      <c r="GT14" s="4"/>
+      <c r="GU14" s="4"/>
+      <c r="GV14" s="4"/>
+      <c r="GW14" s="4"/>
+      <c r="GX14" s="4"/>
+      <c r="GY14" s="4"/>
+      <c r="GZ14" s="4"/>
+      <c r="HA14" s="4"/>
+      <c r="HB14" s="4"/>
+      <c r="HC14" s="4"/>
+      <c r="HD14" s="4"/>
+      <c r="HE14" s="4"/>
+      <c r="HF14" s="4">
+        <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="3" customFormat="1">
+    <row r="15" spans="1:256" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -1328,9 +1533,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:256">
+    <row r="16" spans="1:256" x14ac:dyDescent="0.15">
+      <c r="BP16" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="GI16" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1341,12 +1549,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1354,12 +1562,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
